--- a/data/in.xlsx
+++ b/data/in.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Trung\Ansell\Checkweigher\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trung\Project\Checkweigher\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9AF45A-28B0-4528-8AE0-9A6EE2E02D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8FAAAB-F653-4B9D-A109-5D96E2183BE8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TemThung2MaVachMoi" sheetId="15" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
   <si>
     <t>230227A1G2</t>
   </si>
@@ -108,9 +108,6 @@
     <t>220914F1G2</t>
   </si>
   <si>
-    <t>00-02002</t>
-  </si>
-  <si>
     <t>221031G2G2</t>
   </si>
   <si>
@@ -135,15 +132,6 @@
     <t>2023-04</t>
   </si>
   <si>
-    <t>230401A1G2</t>
-  </si>
-  <si>
-    <t>EBJFEFFBIBGBADFEMEAKEEJBFCBBJEEFFEFFEFFFCBIEIBCFAMIECCFJAAIMAAONABEJBIFBGEEGIAH</t>
-  </si>
-  <si>
-    <t>(01)20076490462110(17)000000(10)2304G2(92)872127</t>
-  </si>
-  <si>
     <t>HYFLEX 11518 GRAINGER SIZE 11,0</t>
   </si>
   <si>
@@ -163,15 +151,6 @@
   </si>
   <si>
     <t>(01)20076490478586(17)000000(10)2304G2(92)112920</t>
-  </si>
-  <si>
-    <t>ORMADUS CUT PRO JG844VP SIZE 8,0 VEND</t>
-  </si>
-  <si>
-    <t>EBJFEFGAIBDEJFAKAEMIAAIGMBBBJEEFFEFFEFFFCBIEIBCFAMIECCFJAAIMAAOANBCECDBEBHAGIAH</t>
-  </si>
-  <si>
-    <t>(01)50662956774586(17)000000(10)2304G2(92)833768</t>
   </si>
   <si>
     <t>221117D1G2</t>
@@ -198,94 +177,115 @@
     <t>(01)50662956774579(17)000000(10)2211G2(92)833767</t>
   </si>
   <si>
-    <t>231020C1G2</t>
+    <t>240730A2G2</t>
   </si>
   <si>
-    <t>2310G2</t>
+    <t>2407G2</t>
   </si>
   <si>
-    <t>HYFLEX 11518 VEND PACK GRAINGER SIZE 7,0</t>
+    <t>ACTIVARMR 78101 SIZE 7,0</t>
   </si>
   <si>
-    <t>2023-10</t>
+    <t>2024-07</t>
   </si>
   <si>
-    <t>20GY62</t>
+    <t>78101070</t>
   </si>
   <si>
-    <t>BAEEAAFAAEABEEAAABEEFAEAAAFEAAAFAAEBAEEA</t>
+    <t>EBJFEFFBIBGBADFEMECEIAKEMACBJEEFFEFFEFFFCBIBFBGBAMIECCFJAAIMAAOBMBAAOEGEAFDGIAH</t>
   </si>
   <si>
-    <t>HYFLEX 11751 VEND PACK GRAINGER SIZE 7,0</t>
+    <t>(01)20076490444697(17)000000(10)2407G2(92)849231</t>
   </si>
   <si>
-    <t>52EP82</t>
+    <t>HYFLEX 11727 VEND PACK SIZE 5,0</t>
   </si>
   <si>
-    <t>(144) 52EP82</t>
+    <t>11727VP050</t>
   </si>
   <si>
-    <t>BAEEAEBAAEABEAEABEAEBEAEAEBEAAAFAAEEAFAAAEEBAEBAEAAFAAEBAEEA</t>
+    <t>EBJFEFFBIBGBADFEMECEIAOAFDABJEEFFEFFEFFFCBIBFBGBAMIECCFJAAIMAAOBNAFJADBEAOAGIAH</t>
   </si>
   <si>
-    <t>EBJFEFFBIBGBADFEMEBGBEICGAIBJEEFFEFFEFFFCBIEIFCBAMIECCFJAAIMAAOBBMECIIECDFAGIAH</t>
+    <t>(01)20076490449661(17)000000(10)2407G2(92)851868</t>
   </si>
   <si>
-    <t>(01)20076490075150(17)000000(10)2310G2(92)824957</t>
+    <t>HYFLEX 11644 GRAINGER VEND PACK SIZE 6,0</t>
   </si>
   <si>
-    <t>231020D1G2</t>
+    <t>33GY82</t>
   </si>
   <si>
-    <t>(144) 20GY62</t>
+    <t>6</t>
   </si>
   <si>
-    <t>EBJFEFFBIBGBADFEMECIEBHACEIBJEEFFEFFEFFFCBIEIFCBAMIECCFJAAIMAAOGBBCAMEJBGBBGIAH</t>
+    <t>EBJFEFFBIBGBADFEMECIEDFADEBBJEEFFEFFEFFFCBIBFBGBAMIECCFJAAIMAAOGBBCAMJBEGEEGIAH</t>
   </si>
   <si>
-    <t>(01)20076490477244(17)000000(10)2310G2(92)119421</t>
+    <t>(01)20076490477473(17)000000(10)2407G2(92)119426</t>
   </si>
   <si>
-    <t>231023A2G2</t>
+    <t>(144) 33GY82</t>
   </si>
   <si>
-    <t>HYFLEX 11801 SIZE 7,0</t>
+    <t>BAEEAEBAAEABEAEABEAEBEAEAEFAAAEFAAAAABEEFAEAAEBAEAAFAAEBAEEA</t>
   </si>
   <si>
-    <t>EBJFEFFBIBGBADFEMEECIFJACECBJEEFFEFFEFFFCBIEIFCBAMIECCFJAAIMAAOFCBACGBBMGCAGIAH</t>
+    <t>HYFLEX 11801 VEND PACK (LOOSE) AMAZON SIZE 6,0</t>
   </si>
   <si>
-    <t>(01)20076490491837(17)000000(10)2310G2(92)103382</t>
+    <t>42VH67</t>
   </si>
   <si>
-    <t>(144) 5AJ27</t>
+    <t>EBJFEFFBIBGBADFEMEBGBAGCCEIBJEEFFEFFEFFFCBIBFBGBAMIECCFJAAIMAAOBBMFBCMEEIAMGIAH</t>
   </si>
   <si>
-    <t>BAEEAEBAAEABEAEABEAEBEAEAEBEAAEABAEAAFEAAFAAEABAEEBAEEA</t>
+    <t>(01)20076490073644(17)000000(10)2407G2(92)820991</t>
   </si>
   <si>
-    <t>231107A2G2</t>
+    <t>(144) 42VH67</t>
   </si>
   <si>
-    <t>2311G2</t>
+    <t>BAEEAABEAEAFAAEBEAAEEABEAAFEAAABAEEBAEEA</t>
   </si>
   <si>
-    <t>2023-11</t>
+    <t>240730A2QN</t>
   </si>
   <si>
-    <t>ACTIVARMR 78101 SIZE 9,0</t>
+    <t>2407QN</t>
   </si>
   <si>
-    <t>78101090</t>
+    <t>HYFLEX 11600 VEND PACK WHITE SIZE 6,0</t>
   </si>
   <si>
-    <t>9"</t>
+    <t>11600060WHVP</t>
   </si>
   <si>
-    <t>EBJFEFFBIBGBADFEMECEICIEBBGBJEEFFEFFEFFFCBIEIGBBAMIECCFJAAIMAAOBMBAAOGEEGBBGIAH</t>
+    <t>CHINA</t>
   </si>
   <si>
-    <t>(01)20076490444703(17)000000(10)2311G2(92)849232</t>
+    <t>EBJFEFFBIBGBADFEMEFBCGCAEICBJEEFFEFFEFFFCBIBFBGBAMIECIAKEAIMAAOANBJAFAJFFJAGIAH</t>
+  </si>
+  <si>
+    <t>(01)20076490094151(17)000000(10)2407QN(92)832515</t>
+  </si>
+  <si>
+    <t>(144) 382XE7</t>
+  </si>
+  <si>
+    <t>BAEEAEBAAEABEAEABEAEBEAEAEFAAAEBAEAAFAAEBAEAEEAFAAABAEEBAEEA</t>
+  </si>
+  <si>
+    <t>ORMADUS CUT PRO JG844VP SIZE 6,0 VEND</t>
+  </si>
+  <si>
+    <t>00-02000</t>
+  </si>
+  <si>
+    <t>EBJFEFGAIBDEJFAKAEMIAAIGOAABJEEFFEFFEFFFCBIBFBGBAMIECCFJAAIMAAOANBCECBDEAIMGIAH</t>
+  </si>
+  <si>
+    <t>(01)50662956774562(17)000000(10)2407G2(92)833766</t>
   </si>
 </sst>
 </file>
@@ -9737,8 +9737,8 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N3" s="28">
-        <v>205673</v>
+      <c r="N3" s="28" t="s">
+        <v>67</v>
       </c>
       <c r="O3" s="28"/>
       <c r="P3" s="28"/>
@@ -9821,7 +9821,7 @@
     </row>
     <row r="10" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -9837,7 +9837,7 @@
       <c r="N10" s="30"/>
       <c r="O10" s="15"/>
       <c r="R10" s="31">
-        <v>103382</v>
+        <v>832515</v>
       </c>
       <c r="S10" s="31"/>
       <c r="T10" s="31"/>
@@ -9921,7 +9921,7 @@
       <c r="N14" s="30"/>
       <c r="O14" s="15"/>
       <c r="R14" s="31" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="S14" s="31"/>
       <c r="T14" s="31"/>
@@ -10006,7 +10006,7 @@
       <c r="O18" s="15"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
@@ -10169,7 +10169,7 @@
     </row>
     <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -10371,7 +10371,7 @@
     </row>
     <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -10525,7 +10525,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="9"/>
       <c r="G42" s="24" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
@@ -10535,7 +10535,7 @@
       <c r="M42" s="25"/>
       <c r="P42" s="18"/>
       <c r="Q42" s="26" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R42" s="26"/>
       <c r="S42" s="26"/>
@@ -10623,7 +10623,7 @@
     </row>
     <row r="47" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -10648,7 +10648,7 @@
       <c r="V47" s="27"/>
       <c r="W47" s="27"/>
       <c r="AD47">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10703,7 +10703,7 @@
     </row>
     <row r="50" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -10855,7 +10855,7 @@
     </row>
     <row r="56" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M56" s="20">
-        <v>103382</v>
+        <v>832515</v>
       </c>
       <c r="N56" s="20"/>
       <c r="O56" s="20"/>
@@ -11985,7 +11985,7 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
@@ -12067,7 +12067,7 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
       <c r="Q6" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R6" s="28"/>
       <c r="S6" s="28"/>
@@ -12111,7 +12111,7 @@
     </row>
     <row r="10" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -12207,7 +12207,7 @@
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
       <c r="Q15" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
@@ -12310,14 +12310,14 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="M20" s="34" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
       <c r="T20" s="34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="U20" s="34"/>
       <c r="V20" s="34"/>
@@ -12465,7 +12465,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="32" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
@@ -12529,7 +12529,7 @@
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -12682,7 +12682,7 @@
     </row>
     <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -12892,7 +12892,7 @@
     <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
@@ -13032,7 +13032,7 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1" s="28" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
@@ -13061,7 +13061,7 @@
       <c r="N3" s="28"/>
       <c r="O3" s="1"/>
       <c r="Q3" s="28">
-        <v>119421</v>
+        <v>820991</v>
       </c>
       <c r="R3" s="28"/>
       <c r="S3" s="28"/>
@@ -13114,7 +13114,7 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
       <c r="Q6" s="28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="R6" s="28"/>
       <c r="S6" s="28"/>
@@ -13158,7 +13158,7 @@
     </row>
     <row r="10" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -13254,7 +13254,7 @@
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
       <c r="Q15" s="26" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
@@ -13357,14 +13357,14 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="M20" s="34" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
       <c r="T20" s="34" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="U20" s="34"/>
       <c r="V20" s="34"/>
@@ -13512,7 +13512,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
@@ -13576,7 +13576,7 @@
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -13729,7 +13729,7 @@
     </row>
     <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -13939,7 +13939,7 @@
     <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
@@ -14079,7 +14079,7 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1" s="28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
@@ -14108,7 +14108,7 @@
       <c r="N3" s="28"/>
       <c r="O3" s="1"/>
       <c r="Q3" s="28">
-        <v>824957</v>
+        <v>119426</v>
       </c>
       <c r="R3" s="28"/>
       <c r="S3" s="28"/>
@@ -14161,7 +14161,7 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
       <c r="Q6" s="28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="R6" s="28"/>
       <c r="S6" s="28"/>
@@ -14205,7 +14205,7 @@
     </row>
     <row r="10" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -14301,7 +14301,7 @@
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
       <c r="Q15" s="26" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
@@ -14404,14 +14404,14 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="M20" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
       <c r="T20" s="34" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="U20" s="34"/>
       <c r="V20" s="34"/>
@@ -14559,7 +14559,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
@@ -14623,7 +14623,7 @@
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -14776,7 +14776,7 @@
     </row>
     <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -14986,7 +14986,7 @@
     <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
@@ -15126,7 +15126,7 @@
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H2" s="23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
@@ -15212,7 +15212,7 @@
       <c r="F8" s="29"/>
       <c r="J8" s="1"/>
       <c r="Q8" s="23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
@@ -15262,7 +15262,7 @@
     </row>
     <row r="12" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -15358,7 +15358,7 @@
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
       <c r="Q17" s="26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
@@ -15465,7 +15465,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="34" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M22" s="34"/>
       <c r="N22" s="34"/>
@@ -15474,7 +15474,7 @@
       <c r="Q22" s="34"/>
       <c r="R22" s="34"/>
       <c r="T22" s="34" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="U22" s="34"/>
       <c r="V22" s="34"/>
@@ -15641,7 +15641,7 @@
     </row>
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -15869,7 +15869,7 @@
     <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="33" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
@@ -16015,7 +16015,7 @@
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H2" s="23" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
@@ -16053,7 +16053,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="1"/>
       <c r="Q5" s="23">
-        <v>833768</v>
+        <v>833766</v>
       </c>
       <c r="R5" s="23"/>
       <c r="S5" s="23"/>
@@ -16101,7 +16101,7 @@
       <c r="F8" s="29"/>
       <c r="J8" s="1"/>
       <c r="Q8" s="23" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
@@ -16151,7 +16151,7 @@
     </row>
     <row r="12" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -16247,7 +16247,7 @@
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
       <c r="Q17" s="26" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
@@ -16354,7 +16354,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="34" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="M22" s="34"/>
       <c r="N22" s="34"/>
@@ -16363,7 +16363,7 @@
       <c r="Q22" s="34"/>
       <c r="R22" s="34"/>
       <c r="T22" s="34" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="U22" s="34"/>
       <c r="V22" s="34"/>
@@ -16530,7 +16530,7 @@
     </row>
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -16758,7 +16758,7 @@
     <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="33" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
@@ -16903,7 +16903,7 @@
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H2" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
@@ -17039,7 +17039,7 @@
     </row>
     <row r="12" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -17242,7 +17242,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M22" s="37"/>
       <c r="N22" s="37"/>
@@ -17433,7 +17433,7 @@
     </row>
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -17661,7 +17661,7 @@
     <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
@@ -17785,7 +17785,7 @@
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H2" s="23" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
@@ -17823,7 +17823,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="1"/>
       <c r="Q5" s="23">
-        <v>872127</v>
+        <v>851868</v>
       </c>
       <c r="R5" s="23"/>
       <c r="S5" s="23"/>
@@ -17871,7 +17871,7 @@
       <c r="F8" s="29"/>
       <c r="J8" s="1"/>
       <c r="Q8" s="23" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
@@ -17921,7 +17921,7 @@
     </row>
     <row r="12" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -18017,7 +18017,7 @@
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
       <c r="Q17" s="26" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
@@ -18124,7 +18124,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="37" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M22" s="37"/>
       <c r="N22" s="37"/>
@@ -18133,7 +18133,7 @@
       <c r="Q22" s="37"/>
       <c r="R22" s="37"/>
       <c r="T22" s="38">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U22" s="39"/>
       <c r="V22" s="39"/>
@@ -18315,7 +18315,7 @@
     </row>
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -18543,7 +18543,7 @@
     <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="33" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
@@ -19546,7 +19546,7 @@
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H2" s="23" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
@@ -19584,7 +19584,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="1"/>
       <c r="Q5" s="23">
-        <v>849232</v>
+        <v>849231</v>
       </c>
       <c r="R5" s="23"/>
       <c r="S5" s="23"/>
@@ -19632,7 +19632,7 @@
       <c r="F8" s="29"/>
       <c r="J8" s="1"/>
       <c r="Q8" s="23" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
@@ -19682,7 +19682,7 @@
     </row>
     <row r="12" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -19778,7 +19778,7 @@
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
       <c r="Q17" s="26" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
@@ -19885,7 +19885,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="37" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="M22" s="37"/>
       <c r="N22" s="37"/>
@@ -19894,7 +19894,7 @@
       <c r="Q22" s="37"/>
       <c r="R22" s="37"/>
       <c r="T22" s="41" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U22" s="41"/>
       <c r="V22" s="41"/>
@@ -20076,7 +20076,7 @@
     </row>
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -20304,7 +20304,7 @@
     <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="33" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>

--- a/data/in.xlsx
+++ b/data/in.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ansell\Checkweigher\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C1C76C-6247-4372-BC13-F0E1BD8EA28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCCA44F-3261-46B7-A819-0AD7DD97D0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,36 +234,6 @@
     <t>240920A3G2</t>
   </si>
   <si>
-    <t>ACTIVARMR 78101 SIZE 7,0</t>
-  </si>
-  <si>
-    <t>78101070</t>
-  </si>
-  <si>
-    <t>EBJFEFFBIBGBADFEMECEIAKEMACBJEEFFEFFEFFFCBIBFFBCAMIECCFJAAIMAAOBMBAAOEGEAIMGIAH</t>
-  </si>
-  <si>
-    <t>(01)20076490444697(17)000000(10)2409G2(92)849231</t>
-  </si>
-  <si>
-    <t>ACTIVARMR 78150 SINGLE SIZE</t>
-  </si>
-  <si>
-    <t>SING</t>
-  </si>
-  <si>
-    <t>EBJFEFFBIBGBADFEMEEFFIBFBMBBJEEFFEFFEFFFCBIBFFBCAMIECCFJAAIMAAOFCBCECAGIFADGIAH</t>
-  </si>
-  <si>
-    <t>(01)20076490002484(17)000000(10)2409G2(92)103743</t>
-  </si>
-  <si>
-    <t>(144) 2AZ35</t>
-  </si>
-  <si>
-    <t>BAEEAEBAAEABEAEABEAEBEAEAAFAAEEABAEBEEAAEFAAAEBEAABAEEA</t>
-  </si>
-  <si>
     <t>240920A3QN</t>
   </si>
   <si>
@@ -289,6 +259,36 @@
   </si>
   <si>
     <t>BAEEAEFAAAABEAEAFAEAAABEEAEFAAABAEEBAEEA</t>
+  </si>
+  <si>
+    <t>HYFLEX 11600 VEND PACK WHITE SIZE 9,0</t>
+  </si>
+  <si>
+    <t>11600090WHVP</t>
+  </si>
+  <si>
+    <t>EBJFEFFBIBGBADFEMEFBCGCABBMBJEEFFEFFEFFFCBIBFFBCAMIECIAKEAIMAAOANBJAFFJAKAEGIAH</t>
+  </si>
+  <si>
+    <t>(01)20076490094182(17)000000(10)2409QN(92)832518</t>
+  </si>
+  <si>
+    <t>(144) 382XF0</t>
+  </si>
+  <si>
+    <t>BAEEAEBAAEABEAEABEAEBEAEAEFAAAEBAEAAFAAEBAEAEAEFAAABEEABAEEA</t>
+  </si>
+  <si>
+    <t>EDGE 48705 VEND SIZE 7,0</t>
+  </si>
+  <si>
+    <t>48705070-VEND</t>
+  </si>
+  <si>
+    <t>EBJFEFFBIBGBADFEMECFBCIEABHBJEEFFEFFFCBIBFFBCAMIECCFJAAIMAAOBBMHABFDADAFGIAH</t>
+  </si>
+  <si>
+    <t>(01)20076490084763(17)0000(10)2409G2(92)827861</t>
   </si>
 </sst>
 </file>
@@ -9743,8 +9743,8 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N3" s="28">
-        <v>222005</v>
+      <c r="N3" s="28" t="s">
+        <v>69</v>
       </c>
       <c r="O3" s="28"/>
       <c r="P3" s="28"/>
@@ -9827,7 +9827,7 @@
     </row>
     <row r="10" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -9843,7 +9843,7 @@
       <c r="N10" s="30"/>
       <c r="O10" s="15"/>
       <c r="R10" s="31">
-        <v>103743</v>
+        <v>832518</v>
       </c>
       <c r="S10" s="31"/>
       <c r="T10" s="31"/>
@@ -9927,7 +9927,7 @@
       <c r="N14" s="30"/>
       <c r="O14" s="15"/>
       <c r="R14" s="31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S14" s="31"/>
       <c r="T14" s="31"/>
@@ -10012,7 +10012,7 @@
       <c r="O18" s="15"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
@@ -10175,7 +10175,7 @@
     </row>
     <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -10377,7 +10377,7 @@
     </row>
     <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -10531,7 +10531,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="9"/>
       <c r="G42" s="24" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
@@ -10629,7 +10629,7 @@
     </row>
     <row r="47" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -10653,8 +10653,8 @@
       <c r="U47" s="27"/>
       <c r="V47" s="27"/>
       <c r="W47" s="27"/>
-      <c r="AD47" t="s">
-        <v>64</v>
+      <c r="AD47">
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10709,7 +10709,7 @@
     </row>
     <row r="50" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -10861,7 +10861,7 @@
     </row>
     <row r="56" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M56" s="20">
-        <v>103743</v>
+        <v>832518</v>
       </c>
       <c r="N56" s="20"/>
       <c r="O56" s="20"/>
@@ -13038,7 +13038,7 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1" s="28" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
@@ -13120,7 +13120,7 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
       <c r="Q6" s="28" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R6" s="28"/>
       <c r="S6" s="28"/>
@@ -13164,7 +13164,7 @@
     </row>
     <row r="10" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -13363,7 +13363,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="M20" s="34" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
@@ -13458,7 +13458,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="9"/>
       <c r="G25" s="24" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
@@ -13518,7 +13518,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="32" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
@@ -13582,7 +13582,7 @@
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -13735,7 +13735,7 @@
     </row>
     <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -13945,7 +13945,7 @@
     <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="33" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
@@ -19590,7 +19590,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="1"/>
       <c r="Q5" s="23">
-        <v>849231</v>
+        <v>827861</v>
       </c>
       <c r="R5" s="23"/>
       <c r="S5" s="23"/>
@@ -19688,7 +19688,7 @@
     </row>
     <row r="12" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -19891,7 +19891,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="37" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M22" s="37"/>
       <c r="N22" s="37"/>
@@ -20082,7 +20082,7 @@
     </row>
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -20310,7 +20310,7 @@
     <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="33" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>

--- a/data/in.xlsx
+++ b/data/in.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ansell\Checkweigher\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trung\Checkweigher\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCCA44F-3261-46B7-A819-0AD7DD97D0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFB262F-2317-4DFE-9A56-87F329C91855}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TemThung2MaVachMoi" sheetId="15" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
   <si>
     <t>230227A1G2</t>
   </si>
@@ -135,6 +135,9 @@
     <t>2023-04</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>230401A1G2</t>
   </si>
   <si>
@@ -204,7 +207,16 @@
     <t>2310G2</t>
   </si>
   <si>
+    <t>HYFLEX 11518 VEND PACK GRAINGER SIZE 7,0</t>
+  </si>
+  <si>
     <t>2023-10</t>
+  </si>
+  <si>
+    <t>20GY62</t>
+  </si>
+  <si>
+    <t>BAEEAAFAAEABEEAAABEEFAEAAAFEAAAFAAEBAEEA</t>
   </si>
   <si>
     <t>HYFLEX 11751 VEND PACK GRAINGER SIZE 7,0</t>
@@ -225,70 +237,55 @@
     <t>(01)20076490075150(17)000000(10)2310G2(92)824957</t>
   </si>
   <si>
+    <t>231020D1G2</t>
+  </si>
+  <si>
+    <t>(144) 20GY62</t>
+  </si>
+  <si>
+    <t>EBJFEFFBIBGBADFEMECIEBHACEIBJEEFFEFFEFFFCBIEIFCBAMIECCFJAAIMAAOGBBCAMEJBGBBGIAH</t>
+  </si>
+  <si>
+    <t>(01)20076490477244(17)000000(10)2310G2(92)119421</t>
+  </si>
+  <si>
+    <t>231023A2G2</t>
+  </si>
+  <si>
+    <t>HYFLEX 11801 SIZE 7,0</t>
+  </si>
+  <si>
+    <t>EBJFEFFBIBGBADFEMEECIFJACECBJEEFFEFFEFFFCBIEIFCBAMIECCFJAAIMAAOFCBACGBBMGCAGIAH</t>
+  </si>
+  <si>
+    <t>(01)20076490491837(17)000000(10)2310G2(92)103382</t>
+  </si>
+  <si>
+    <t>(144) 5AJ27</t>
+  </si>
+  <si>
+    <t>BAEEAEBAAEABEAEABEAEBEAEAEBEAAEABAEAAFEAAFAAEABAEEBAEEA</t>
+  </si>
+  <si>
     <t>2409G2</t>
+  </si>
+  <si>
+    <t>HYFLEX 11801VP SIZE 9,0 VEND</t>
   </si>
   <si>
     <t>2024-09</t>
   </si>
   <si>
-    <t>240920A3G2</t>
+    <t>11-801VP90</t>
   </si>
   <si>
-    <t>240920A3QN</t>
+    <t>EBJFEFFBIBGBADFEMEAKEFJABNABJEEFFEFFEFFFCBIBFFBCAMIECCFJAAIMAAOANBAMCCGAJAFGIAH</t>
   </si>
   <si>
-    <t>2409QN</t>
+    <t>(01)20076490461885(17)000000(10)2409G2(92)839538</t>
   </si>
   <si>
-    <t>CHINA</t>
-  </si>
-  <si>
-    <t>HYFLEX 11600 VEND PACK (LOOSE) AMAZON LATEX FREE BLK SIZE 7,0</t>
-  </si>
-  <si>
-    <t>349GF7</t>
-  </si>
-  <si>
-    <t>EBJFEFFBIBGBADFEMEOAAFEFBGBBJEEFFEFFEFFFCBIBFFBCAMIECIAKEAIMAAOBMBBJEBIFBFIGIAH</t>
-  </si>
-  <si>
-    <t>(01)20076490620107(17)000000(10)2409QN(92)841716</t>
-  </si>
-  <si>
-    <t>(144) 349GF7</t>
-  </si>
-  <si>
-    <t>BAEEAEFAAAABEAEAFAEAAABEEAEFAAABAEEBAEEA</t>
-  </si>
-  <si>
-    <t>HYFLEX 11600 VEND PACK WHITE SIZE 9,0</t>
-  </si>
-  <si>
-    <t>11600090WHVP</t>
-  </si>
-  <si>
-    <t>EBJFEFFBIBGBADFEMEFBCGCABBMBJEEFFEFFEFFFCBIBFFBCAMIECIAKEAIMAAOANBJAFFJAKAEGIAH</t>
-  </si>
-  <si>
-    <t>(01)20076490094182(17)000000(10)2409QN(92)832518</t>
-  </si>
-  <si>
-    <t>(144) 382XF0</t>
-  </si>
-  <si>
-    <t>BAEEAEBAAEABEAEABEAEBEAEAEFAAAEBAEAAFAAEBAEAEAEFAAABEEABAEEA</t>
-  </si>
-  <si>
-    <t>EDGE 48705 VEND SIZE 7,0</t>
-  </si>
-  <si>
-    <t>48705070-VEND</t>
-  </si>
-  <si>
-    <t>EBJFEFFBIBGBADFEMECFBCIEABHBJEEFFEFFFCBIBFFBCAMIECCFJAAIMAAOBBMHABFDADAFGIAH</t>
-  </si>
-  <si>
-    <t>(01)20076490084763(17)0000(10)2409G2(92)827861</t>
+    <t>240923A1G2</t>
   </si>
 </sst>
 </file>
@@ -9411,9 +9408,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9451,7 +9448,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9557,7 +9554,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9699,7 +9696,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9710,7 +9707,7 @@
   <sheetPr codeName="Sheet12">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD58"/>
+  <dimension ref="A1:X58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="AD47" sqref="AD47"/>
@@ -9743,8 +9740,8 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N3" s="28" t="s">
-        <v>69</v>
+      <c r="N3" s="28">
+        <v>205673</v>
       </c>
       <c r="O3" s="28"/>
       <c r="P3" s="28"/>
@@ -9827,7 +9824,7 @@
     </row>
     <row r="10" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -9843,7 +9840,7 @@
       <c r="N10" s="30"/>
       <c r="O10" s="15"/>
       <c r="R10" s="31">
-        <v>832518</v>
+        <v>103382</v>
       </c>
       <c r="S10" s="31"/>
       <c r="T10" s="31"/>
@@ -9927,7 +9924,7 @@
       <c r="N14" s="30"/>
       <c r="O14" s="15"/>
       <c r="R14" s="31" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="S14" s="31"/>
       <c r="T14" s="31"/>
@@ -10012,7 +10009,7 @@
       <c r="O18" s="15"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="32" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
@@ -10175,7 +10172,7 @@
     </row>
     <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -10350,7 +10347,7 @@
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
     </row>
-    <row r="33" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -10375,9 +10372,9 @@
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
     </row>
-    <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -10402,7 +10399,7 @@
       <c r="V34" s="22"/>
       <c r="W34" s="22"/>
     </row>
-    <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -10427,7 +10424,7 @@
       <c r="V35" s="22"/>
       <c r="W35" s="22"/>
     </row>
-    <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -10452,7 +10449,7 @@
       <c r="V36" s="17"/>
       <c r="W36" s="17"/>
     </row>
-    <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="23" t="s">
         <v>4</v>
@@ -10468,7 +10465,7 @@
       <c r="U37" s="14"/>
       <c r="V37" s="14"/>
     </row>
-    <row r="38" spans="1:30" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
@@ -10482,7 +10479,7 @@
       <c r="U38" s="14"/>
       <c r="V38" s="14"/>
     </row>
-    <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.9">
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
@@ -10492,7 +10489,7 @@
       <c r="U39" s="14"/>
       <c r="V39" s="14"/>
     </row>
-    <row r="40" spans="1:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="23"/>
@@ -10507,7 +10504,7 @@
       <c r="U40" s="14"/>
       <c r="V40" s="14"/>
     </row>
-    <row r="41" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -10523,7 +10520,7 @@
       <c r="U41" s="14"/>
       <c r="V41" s="14"/>
     </row>
-    <row r="42" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -10531,7 +10528,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="9"/>
       <c r="G42" s="24" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
@@ -10541,13 +10538,13 @@
       <c r="M42" s="25"/>
       <c r="P42" s="18"/>
       <c r="Q42" s="26" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="R42" s="26"/>
       <c r="S42" s="26"/>
       <c r="T42" s="26"/>
     </row>
-    <row r="43" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -10568,7 +10565,7 @@
       <c r="S43" s="26"/>
       <c r="T43" s="26"/>
     </row>
-    <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -10589,7 +10586,7 @@
       <c r="S44" s="26"/>
       <c r="T44" s="26"/>
     </row>
-    <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -10608,7 +10605,7 @@
       <c r="S45" s="18"/>
       <c r="T45" s="18"/>
     </row>
-    <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -10627,9 +10624,9 @@
       <c r="S46" s="18"/>
       <c r="T46" s="18"/>
     </row>
-    <row r="47" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -10653,11 +10650,8 @@
       <c r="U47" s="27"/>
       <c r="V47" s="27"/>
       <c r="W47" s="27"/>
-      <c r="AD47">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
@@ -10709,7 +10703,7 @@
     </row>
     <row r="50" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -10861,7 +10855,7 @@
     </row>
     <row r="56" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M56" s="20">
-        <v>832518</v>
+        <v>103382</v>
       </c>
       <c r="N56" s="20"/>
       <c r="O56" s="20"/>
@@ -12117,7 +12111,7 @@
     </row>
     <row r="10" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -12316,14 +12310,14 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="M20" s="34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
       <c r="T20" s="34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U20" s="34"/>
       <c r="V20" s="34"/>
@@ -12471,7 +12465,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
@@ -12535,7 +12529,7 @@
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -12688,7 +12682,7 @@
     </row>
     <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -12898,7 +12892,7 @@
     <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
@@ -13038,7 +13032,7 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
@@ -13067,7 +13061,7 @@
       <c r="N3" s="28"/>
       <c r="O3" s="1"/>
       <c r="Q3" s="28">
-        <v>841716</v>
+        <v>119421</v>
       </c>
       <c r="R3" s="28"/>
       <c r="S3" s="28"/>
@@ -13120,7 +13114,7 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
       <c r="Q6" s="28" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="R6" s="28"/>
       <c r="S6" s="28"/>
@@ -13164,7 +13158,7 @@
     </row>
     <row r="10" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -13260,7 +13254,7 @@
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
       <c r="Q15" s="26" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
@@ -13363,14 +13357,14 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="M20" s="34" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
       <c r="T20" s="34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U20" s="34"/>
       <c r="V20" s="34"/>
@@ -13458,7 +13452,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="9"/>
       <c r="G25" s="24" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
@@ -13518,7 +13512,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
@@ -13582,7 +13576,7 @@
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -13735,7 +13729,7 @@
     </row>
     <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -13945,7 +13939,7 @@
     <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
@@ -14085,7 +14079,7 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1" s="28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
@@ -14167,7 +14161,7 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
       <c r="Q6" s="28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R6" s="28"/>
       <c r="S6" s="28"/>
@@ -14211,7 +14205,7 @@
     </row>
     <row r="10" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -14307,7 +14301,7 @@
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
       <c r="Q15" s="26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
@@ -14410,14 +14404,14 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="M20" s="34" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
       <c r="T20" s="34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U20" s="34"/>
       <c r="V20" s="34"/>
@@ -14565,7 +14559,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="32" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
@@ -14629,7 +14623,7 @@
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -14782,7 +14776,7 @@
     </row>
     <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -14992,7 +14986,7 @@
     <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="33" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
@@ -15132,7 +15126,7 @@
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H2" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
@@ -15218,7 +15212,7 @@
       <c r="F8" s="29"/>
       <c r="J8" s="1"/>
       <c r="Q8" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
@@ -15268,7 +15262,7 @@
     </row>
     <row r="12" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -15364,7 +15358,7 @@
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
       <c r="Q17" s="26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
@@ -15471,7 +15465,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M22" s="34"/>
       <c r="N22" s="34"/>
@@ -15480,7 +15474,7 @@
       <c r="Q22" s="34"/>
       <c r="R22" s="34"/>
       <c r="T22" s="34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U22" s="34"/>
       <c r="V22" s="34"/>
@@ -15647,7 +15641,7 @@
     </row>
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -15875,7 +15869,7 @@
     <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
@@ -16021,7 +16015,7 @@
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H2" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
@@ -16157,7 +16151,7 @@
     </row>
     <row r="12" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -16536,7 +16530,7 @@
     </row>
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -16764,7 +16758,7 @@
     <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
@@ -17791,7 +17785,7 @@
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H2" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
@@ -18321,7 +18315,7 @@
     </row>
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -18549,7 +18543,7 @@
     <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
@@ -19552,7 +19546,7 @@
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H2" s="23" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
@@ -19590,7 +19584,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="1"/>
       <c r="Q5" s="23">
-        <v>827861</v>
+        <v>839538</v>
       </c>
       <c r="R5" s="23"/>
       <c r="S5" s="23"/>
@@ -19638,7 +19632,7 @@
       <c r="F8" s="29"/>
       <c r="J8" s="1"/>
       <c r="Q8" s="23" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
@@ -19688,7 +19682,7 @@
     </row>
     <row r="12" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -19784,7 +19778,7 @@
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
       <c r="Q17" s="26" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
@@ -19891,7 +19885,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M22" s="37"/>
       <c r="N22" s="37"/>
@@ -19900,7 +19894,7 @@
       <c r="Q22" s="37"/>
       <c r="R22" s="37"/>
       <c r="T22" s="41" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="U22" s="41"/>
       <c r="V22" s="41"/>
@@ -20082,7 +20076,7 @@
     </row>
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -20310,7 +20304,7 @@
     <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>

--- a/data/in.xlsx
+++ b/data/in.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trung\Checkweigher\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ansell\Checkweigher\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFB262F-2317-4DFE-9A56-87F329C91855}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B881A1-9163-453A-8EF3-95AF83697E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TemThung2MaVachMoi" sheetId="15" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>230227A1G2</t>
   </si>
@@ -207,16 +207,7 @@
     <t>2310G2</t>
   </si>
   <si>
-    <t>HYFLEX 11518 VEND PACK GRAINGER SIZE 7,0</t>
-  </si>
-  <si>
     <t>2023-10</t>
-  </si>
-  <si>
-    <t>20GY62</t>
-  </si>
-  <si>
-    <t>BAEEAAFAAEABEEAAABEEFAEAAAFEAAAFAAEBAEEA</t>
   </si>
   <si>
     <t>HYFLEX 11751 VEND PACK GRAINGER SIZE 7,0</t>
@@ -235,36 +226,6 @@
   </si>
   <si>
     <t>(01)20076490075150(17)000000(10)2310G2(92)824957</t>
-  </si>
-  <si>
-    <t>231020D1G2</t>
-  </si>
-  <si>
-    <t>(144) 20GY62</t>
-  </si>
-  <si>
-    <t>EBJFEFFBIBGBADFEMECIEBHACEIBJEEFFEFFEFFFCBIEIFCBAMIECCFJAAIMAAOGBBCAMEJBGBBGIAH</t>
-  </si>
-  <si>
-    <t>(01)20076490477244(17)000000(10)2310G2(92)119421</t>
-  </si>
-  <si>
-    <t>231023A2G2</t>
-  </si>
-  <si>
-    <t>HYFLEX 11801 SIZE 7,0</t>
-  </si>
-  <si>
-    <t>EBJFEFFBIBGBADFEMEECIFJACECBJEEFFEFFEFFFCBIEIFCBAMIECCFJAAIMAAOFCBACGBBMGCAGIAH</t>
-  </si>
-  <si>
-    <t>(01)20076490491837(17)000000(10)2310G2(92)103382</t>
-  </si>
-  <si>
-    <t>(144) 5AJ27</t>
-  </si>
-  <si>
-    <t>BAEEAEBAAEABEAEABEAEBEAEAEBEAAEABAEAAFEAAFAAEABAEEBAEEA</t>
   </si>
   <si>
     <t>2409G2</t>
@@ -286,6 +247,54 @@
   </si>
   <si>
     <t>240923A1G2</t>
+  </si>
+  <si>
+    <t>240930B2QN</t>
+  </si>
+  <si>
+    <t>2409QN</t>
+  </si>
+  <si>
+    <t>HYFLEX 11600 VEND PACK WHITE SIZE 6,0</t>
+  </si>
+  <si>
+    <t>11600060WHVP</t>
+  </si>
+  <si>
+    <t>CHINA</t>
+  </si>
+  <si>
+    <t>EBJFEFFBIBGBADFEMEFBCGCAEICBJEEFFEFFEFFFCBIBFFBCAMIECIAKEAIMAAOANBJAFAJFIIEGIAH</t>
+  </si>
+  <si>
+    <t>(01)20076490094151(17)000000(10)2409QN(92)832515</t>
+  </si>
+  <si>
+    <t>(144) 382XE7</t>
+  </si>
+  <si>
+    <t>BAEEAEBAAEABEAEABEAEBEAEAEFAAAEBAEAAFAAEBAEAEEAFAAABAEEBAEEA</t>
+  </si>
+  <si>
+    <t>240930F3G2</t>
+  </si>
+  <si>
+    <t>HYFLEX 11801 GRAINGER VEND PACK SIZE 8,0</t>
+  </si>
+  <si>
+    <t>20GY49</t>
+  </si>
+  <si>
+    <t>EBJFEFFBIBGBADFEMEBBGGAIMBBBJEEFFEFFEFFFCBIBFFBCAMIECCFJAAIMAAOGBBCAMBIFFAJGIAH</t>
+  </si>
+  <si>
+    <t>(01)20076490035086(17)000000(10)2409G2(92)119416</t>
+  </si>
+  <si>
+    <t>(144) 20GY49</t>
+  </si>
+  <si>
+    <t>BAEEAAFAAEABEEAAABEEFAEAAABEAEAFAEABAEEA</t>
   </si>
 </sst>
 </file>
@@ -9408,9 +9417,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9448,7 +9457,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9554,7 +9563,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9696,7 +9705,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9707,7 +9716,7 @@
   <sheetPr codeName="Sheet12">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X58"/>
+  <dimension ref="A1:AD58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="AD47" sqref="AD47"/>
@@ -9740,8 +9749,8 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N3" s="28">
-        <v>205673</v>
+      <c r="N3" s="28" t="s">
+        <v>67</v>
       </c>
       <c r="O3" s="28"/>
       <c r="P3" s="28"/>
@@ -9824,7 +9833,7 @@
     </row>
     <row r="10" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -9840,7 +9849,7 @@
       <c r="N10" s="30"/>
       <c r="O10" s="15"/>
       <c r="R10" s="31">
-        <v>103382</v>
+        <v>832515</v>
       </c>
       <c r="S10" s="31"/>
       <c r="T10" s="31"/>
@@ -9924,7 +9933,7 @@
       <c r="N14" s="30"/>
       <c r="O14" s="15"/>
       <c r="R14" s="31" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="S14" s="31"/>
       <c r="T14" s="31"/>
@@ -10172,7 +10181,7 @@
     </row>
     <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -10347,7 +10356,7 @@
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
     </row>
-    <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -10372,9 +10381,9 @@
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
     </row>
-    <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -10399,7 +10408,7 @@
       <c r="V34" s="22"/>
       <c r="W34" s="22"/>
     </row>
-    <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -10424,7 +10433,7 @@
       <c r="V35" s="22"/>
       <c r="W35" s="22"/>
     </row>
-    <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -10449,7 +10458,7 @@
       <c r="V36" s="17"/>
       <c r="W36" s="17"/>
     </row>
-    <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="23" t="s">
         <v>4</v>
@@ -10465,7 +10474,7 @@
       <c r="U37" s="14"/>
       <c r="V37" s="14"/>
     </row>
-    <row r="38" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
@@ -10479,7 +10488,7 @@
       <c r="U38" s="14"/>
       <c r="V38" s="14"/>
     </row>
-    <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.9">
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
@@ -10489,7 +10498,7 @@
       <c r="U39" s="14"/>
       <c r="V39" s="14"/>
     </row>
-    <row r="40" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="23"/>
@@ -10504,7 +10513,7 @@
       <c r="U40" s="14"/>
       <c r="V40" s="14"/>
     </row>
-    <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -10520,7 +10529,7 @@
       <c r="U41" s="14"/>
       <c r="V41" s="14"/>
     </row>
-    <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -10528,7 +10537,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="9"/>
       <c r="G42" s="24" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
@@ -10538,13 +10547,13 @@
       <c r="M42" s="25"/>
       <c r="P42" s="18"/>
       <c r="Q42" s="26" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R42" s="26"/>
       <c r="S42" s="26"/>
       <c r="T42" s="26"/>
     </row>
-    <row r="43" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -10565,7 +10574,7 @@
       <c r="S43" s="26"/>
       <c r="T43" s="26"/>
     </row>
-    <row r="44" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -10586,7 +10595,7 @@
       <c r="S44" s="26"/>
       <c r="T44" s="26"/>
     </row>
-    <row r="45" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -10605,7 +10614,7 @@
       <c r="S45" s="18"/>
       <c r="T45" s="18"/>
     </row>
-    <row r="46" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -10624,9 +10633,9 @@
       <c r="S46" s="18"/>
       <c r="T46" s="18"/>
     </row>
-    <row r="47" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -10650,8 +10659,11 @@
       <c r="U47" s="27"/>
       <c r="V47" s="27"/>
       <c r="W47" s="27"/>
-    </row>
-    <row r="48" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
@@ -10703,7 +10715,7 @@
     </row>
     <row r="50" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -10855,7 +10867,7 @@
     </row>
     <row r="56" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M56" s="20">
-        <v>103382</v>
+        <v>832515</v>
       </c>
       <c r="N56" s="20"/>
       <c r="O56" s="20"/>
@@ -13032,7 +13044,7 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1" s="28" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
@@ -13061,7 +13073,7 @@
       <c r="N3" s="28"/>
       <c r="O3" s="1"/>
       <c r="Q3" s="28">
-        <v>119421</v>
+        <v>119416</v>
       </c>
       <c r="R3" s="28"/>
       <c r="S3" s="28"/>
@@ -13114,7 +13126,7 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
       <c r="Q6" s="28" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="R6" s="28"/>
       <c r="S6" s="28"/>
@@ -13158,7 +13170,7 @@
     </row>
     <row r="10" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -13254,7 +13266,7 @@
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
       <c r="Q15" s="26" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
@@ -13357,14 +13369,14 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="M20" s="34" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
       <c r="T20" s="34" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="U20" s="34"/>
       <c r="V20" s="34"/>
@@ -13512,7 +13524,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="32" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
@@ -13576,7 +13588,7 @@
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -13729,7 +13741,7 @@
     </row>
     <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -13939,7 +13951,7 @@
     <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="33" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
@@ -14205,7 +14217,7 @@
     </row>
     <row r="10" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -14301,7 +14313,7 @@
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
       <c r="Q15" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
@@ -14404,7 +14416,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="M20" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
@@ -14559,7 +14571,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
@@ -14623,7 +14635,7 @@
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -14776,7 +14788,7 @@
     </row>
     <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -14986,7 +14998,7 @@
     <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
@@ -19546,7 +19558,7 @@
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H2" s="23" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
@@ -19632,7 +19644,7 @@
       <c r="F8" s="29"/>
       <c r="J8" s="1"/>
       <c r="Q8" s="23" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
@@ -19682,7 +19694,7 @@
     </row>
     <row r="12" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -19778,7 +19790,7 @@
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
       <c r="Q17" s="26" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
@@ -19885,7 +19897,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="37" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M22" s="37"/>
       <c r="N22" s="37"/>
@@ -20076,7 +20088,7 @@
     </row>
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -20304,7 +20316,7 @@
     <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="33" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
